--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Itgav-Thy1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Itgav-Thy1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="H2">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="I2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="J2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.75490598259295</v>
+        <v>3.389838666666666</v>
       </c>
       <c r="N2">
-        <v>2.75490598259295</v>
+        <v>10.169516</v>
       </c>
       <c r="O2">
-        <v>0.02821565410429259</v>
+        <v>0.03393930434450846</v>
       </c>
       <c r="P2">
-        <v>0.02821565410429259</v>
+        <v>0.03393930434450846</v>
       </c>
       <c r="Q2">
-        <v>46.67884146078021</v>
+        <v>62.31363132371066</v>
       </c>
       <c r="R2">
-        <v>46.67884146078021</v>
+        <v>560.822681913396</v>
       </c>
       <c r="S2">
-        <v>0.001698198132287926</v>
+        <v>0.002165381437931704</v>
       </c>
       <c r="T2">
-        <v>0.001698198132287926</v>
+        <v>0.002165381437931704</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="H3">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="I3">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="J3">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>84.303988237933</v>
+        <v>84.50377666666667</v>
       </c>
       <c r="N3">
-        <v>84.303988237933</v>
+        <v>253.51133</v>
       </c>
       <c r="O3">
-        <v>0.8634386025380856</v>
+        <v>0.8460577852132902</v>
       </c>
       <c r="P3">
-        <v>0.8634386025380856</v>
+        <v>0.8460577852132902</v>
       </c>
       <c r="Q3">
-        <v>1428.438039749758</v>
+        <v>1553.388730988137</v>
       </c>
       <c r="R3">
-        <v>1428.438039749758</v>
+        <v>13980.49857889323</v>
       </c>
       <c r="S3">
-        <v>0.05196724544310317</v>
+        <v>0.05397982837013864</v>
       </c>
       <c r="T3">
-        <v>0.05196724544310317</v>
+        <v>0.05397982837013863</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="H4">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="I4">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="J4">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>10.5786077282179</v>
+        <v>0.1070423333333333</v>
       </c>
       <c r="N4">
-        <v>10.5786077282179</v>
+        <v>0.321127</v>
       </c>
       <c r="O4">
-        <v>0.1083457433576218</v>
+        <v>0.001071715407718417</v>
       </c>
       <c r="P4">
-        <v>0.1083457433576218</v>
+        <v>0.001071715407718417</v>
       </c>
       <c r="Q4">
-        <v>179.2428330191145</v>
+        <v>1.967703230526333</v>
       </c>
       <c r="R4">
-        <v>179.2428330191145</v>
+        <v>17.709329074737</v>
       </c>
       <c r="S4">
-        <v>0.006520938282386609</v>
+        <v>6.837714253251526E-05</v>
       </c>
       <c r="T4">
-        <v>0.006520938282386609</v>
+        <v>6.837714253251525E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>82.1560640128703</v>
+        <v>18.382477</v>
       </c>
       <c r="H5">
-        <v>82.1560640128703</v>
+        <v>55.147431</v>
       </c>
       <c r="I5">
-        <v>0.2918263978057133</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="J5">
-        <v>0.2918263978057133</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.75490598259295</v>
+        <v>11.878781</v>
       </c>
       <c r="N5">
-        <v>2.75490598259295</v>
+        <v>35.636343</v>
       </c>
       <c r="O5">
-        <v>0.02821565410429259</v>
+        <v>0.1189311950344829</v>
       </c>
       <c r="P5">
-        <v>0.02821565410429259</v>
+        <v>0.1189311950344828</v>
       </c>
       <c r="Q5">
-        <v>226.3322322553458</v>
+        <v>218.361418520537</v>
       </c>
       <c r="R5">
-        <v>226.3322322553458</v>
+        <v>1965.252766684833</v>
       </c>
       <c r="S5">
-        <v>0.008234072698987698</v>
+        <v>0.007587998843599582</v>
       </c>
       <c r="T5">
-        <v>0.008234072698987698</v>
+        <v>0.007587998843599579</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="H6">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="I6">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="J6">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.303988237933</v>
+        <v>3.389838666666666</v>
       </c>
       <c r="N6">
-        <v>84.303988237933</v>
+        <v>10.169516</v>
       </c>
       <c r="O6">
-        <v>0.8634386025380856</v>
+        <v>0.03393930434450846</v>
       </c>
       <c r="P6">
-        <v>0.8634386025380856</v>
+        <v>0.03393930434450846</v>
       </c>
       <c r="Q6">
-        <v>6926.083854215888</v>
+        <v>280.1475838247488</v>
       </c>
       <c r="R6">
-        <v>6926.083854215888</v>
+        <v>2521.32825442274</v>
       </c>
       <c r="S6">
-        <v>0.2519741771050886</v>
+        <v>0.009735050983374528</v>
       </c>
       <c r="T6">
-        <v>0.2519741771050886</v>
+        <v>0.009735050983374528</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,122 +841,122 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="H7">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="I7">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="J7">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.5786077282179</v>
+        <v>84.50377666666667</v>
       </c>
       <c r="N7">
-        <v>10.5786077282179</v>
+        <v>253.51133</v>
       </c>
       <c r="O7">
-        <v>0.1083457433576218</v>
+        <v>0.8460577852132902</v>
       </c>
       <c r="P7">
-        <v>0.1083457433576218</v>
+        <v>0.8460577852132902</v>
       </c>
       <c r="Q7">
-        <v>869.0967736865143</v>
+        <v>6983.674205507771</v>
       </c>
       <c r="R7">
-        <v>869.0967736865143</v>
+        <v>62853.06784956995</v>
       </c>
       <c r="S7">
-        <v>0.03161814800163707</v>
+        <v>0.2426807453189596</v>
       </c>
       <c r="T7">
-        <v>0.03161814800163707</v>
+        <v>0.2426807453189596</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>90.9326997682511</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="H8">
-        <v>90.9326997682511</v>
+        <v>247.930015</v>
       </c>
       <c r="I8">
-        <v>0.3230018688816447</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="J8">
-        <v>0.3230018688816447</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.75490598259295</v>
+        <v>0.1070423333333333</v>
       </c>
       <c r="N8">
-        <v>2.75490598259295</v>
+        <v>0.321127</v>
       </c>
       <c r="O8">
-        <v>0.02821565410429259</v>
+        <v>0.001071715407718417</v>
       </c>
       <c r="P8">
-        <v>0.02821565410429259</v>
+        <v>0.001071715407718417</v>
       </c>
       <c r="Q8">
-        <v>250.5110386048835</v>
+        <v>8.846335769656109</v>
       </c>
       <c r="R8">
-        <v>250.5110386048835</v>
+        <v>79.61702192690498</v>
       </c>
       <c r="S8">
-        <v>0.009113709007404555</v>
+        <v>0.000307407719024004</v>
       </c>
       <c r="T8">
-        <v>0.009113709007404555</v>
+        <v>0.000307407719024004</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>90.9326997682511</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="H9">
-        <v>90.9326997682511</v>
+        <v>247.930015</v>
       </c>
       <c r="I9">
-        <v>0.3230018688816447</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="J9">
-        <v>0.3230018688816447</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>84.303988237933</v>
+        <v>11.878781</v>
       </c>
       <c r="N9">
-        <v>84.303988237933</v>
+        <v>35.636343</v>
       </c>
       <c r="O9">
-        <v>0.8634386025380856</v>
+        <v>0.1189311950344829</v>
       </c>
       <c r="P9">
-        <v>0.8634386025380856</v>
+        <v>0.1189311950344828</v>
       </c>
       <c r="Q9">
-        <v>7665.989251706133</v>
+        <v>981.7021171705717</v>
       </c>
       <c r="R9">
-        <v>7665.989251706133</v>
+        <v>8835.319054535144</v>
       </c>
       <c r="S9">
-        <v>0.2788922822843573</v>
+        <v>0.03411387680259533</v>
       </c>
       <c r="T9">
-        <v>0.2788922822843573</v>
+        <v>0.03411387680259533</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="H10">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="I10">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="J10">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.5786077282179</v>
+        <v>3.389838666666666</v>
       </c>
       <c r="N10">
-        <v>10.5786077282179</v>
+        <v>10.169516</v>
       </c>
       <c r="O10">
-        <v>0.1083457433576218</v>
+        <v>0.03393930434450846</v>
       </c>
       <c r="P10">
-        <v>0.1083457433576218</v>
+        <v>0.03393930434450846</v>
       </c>
       <c r="Q10">
-        <v>961.9413605161391</v>
+        <v>309.3261568725378</v>
       </c>
       <c r="R10">
-        <v>961.9413605161391</v>
+        <v>2783.93541185284</v>
       </c>
       <c r="S10">
-        <v>0.03499587758988289</v>
+        <v>0.01074899831914751</v>
       </c>
       <c r="T10">
-        <v>0.03499587758988289</v>
+        <v>0.01074899831914751</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>78.294871125689</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="H11">
-        <v>78.294871125689</v>
+        <v>273.75299</v>
       </c>
       <c r="I11">
-        <v>0.2781110619380817</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="J11">
-        <v>0.2781110619380817</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.75490598259295</v>
+        <v>84.50377666666667</v>
       </c>
       <c r="N11">
-        <v>2.75490598259295</v>
+        <v>253.51133</v>
       </c>
       <c r="O11">
-        <v>0.02821565410429259</v>
+        <v>0.8460577852132902</v>
       </c>
       <c r="P11">
-        <v>0.02821565410429259</v>
+        <v>0.8460577852132902</v>
       </c>
       <c r="Q11">
-        <v>215.6950088705046</v>
+        <v>7711.053842930744</v>
       </c>
       <c r="R11">
-        <v>215.6950088705046</v>
+        <v>69399.48458637671</v>
       </c>
       <c r="S11">
-        <v>0.007847085526222406</v>
+        <v>0.2679569863555799</v>
       </c>
       <c r="T11">
-        <v>0.007847085526222406</v>
+        <v>0.2679569863555799</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>78.294871125689</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="H12">
-        <v>78.294871125689</v>
+        <v>273.75299</v>
       </c>
       <c r="I12">
-        <v>0.2781110619380817</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="J12">
-        <v>0.2781110619380817</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>84.303988237933</v>
+        <v>0.1070423333333333</v>
       </c>
       <c r="N12">
-        <v>84.303988237933</v>
+        <v>0.321127</v>
       </c>
       <c r="O12">
-        <v>0.8634386025380856</v>
+        <v>0.001071715407718417</v>
       </c>
       <c r="P12">
-        <v>0.8634386025380856</v>
+        <v>0.001071715407718417</v>
       </c>
       <c r="Q12">
-        <v>6600.569894470565</v>
+        <v>9.767719602192223</v>
       </c>
       <c r="R12">
-        <v>6600.569894470565</v>
+        <v>87.90947641973</v>
       </c>
       <c r="S12">
-        <v>0.2401318266702002</v>
+        <v>0.0003394255521337381</v>
       </c>
       <c r="T12">
-        <v>0.2401318266702002</v>
+        <v>0.0003394255521337381</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>78.294871125689</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="H13">
-        <v>78.294871125689</v>
+        <v>273.75299</v>
       </c>
       <c r="I13">
-        <v>0.2781110619380817</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="J13">
-        <v>0.2781110619380817</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.5786077282179</v>
+        <v>11.878781</v>
       </c>
       <c r="N13">
-        <v>10.5786077282179</v>
+        <v>35.636343</v>
       </c>
       <c r="O13">
-        <v>0.1083457433576218</v>
+        <v>0.1189311950344829</v>
       </c>
       <c r="P13">
-        <v>0.1083457433576218</v>
+        <v>0.1189311950344828</v>
       </c>
       <c r="Q13">
-        <v>828.2507287700382</v>
+        <v>1083.950605435063</v>
       </c>
       <c r="R13">
-        <v>828.2507287700382</v>
+        <v>9755.555448915571</v>
       </c>
       <c r="S13">
-        <v>0.03013214974165907</v>
+        <v>0.03766698346387029</v>
       </c>
       <c r="T13">
-        <v>0.03013214974165907</v>
+        <v>0.03766698346387029</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.1962261092722</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="H14">
-        <v>13.1962261092722</v>
+        <v>243.865367</v>
       </c>
       <c r="I14">
-        <v>0.04687428951678264</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="J14">
-        <v>0.04687428951678264</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.75490598259295</v>
+        <v>3.389838666666666</v>
       </c>
       <c r="N14">
-        <v>2.75490598259295</v>
+        <v>10.169516</v>
       </c>
       <c r="O14">
-        <v>0.02821565410429259</v>
+        <v>0.03393930434450846</v>
       </c>
       <c r="P14">
-        <v>0.02821565410429259</v>
+        <v>0.03393930434450846</v>
       </c>
       <c r="Q14">
-        <v>36.35436225608327</v>
+        <v>275.5547501724857</v>
       </c>
       <c r="R14">
-        <v>36.35436225608327</v>
+        <v>2479.992751552372</v>
       </c>
       <c r="S14">
-        <v>0.001322588739390007</v>
+        <v>0.009575451285413509</v>
       </c>
       <c r="T14">
-        <v>0.001322588739390007</v>
+        <v>0.009575451285413509</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,114 +1340,424 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.1962261092722</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="H15">
-        <v>13.1962261092722</v>
+        <v>243.865367</v>
       </c>
       <c r="I15">
-        <v>0.04687428951678264</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="J15">
-        <v>0.04687428951678264</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.303988237933</v>
+        <v>84.50377666666667</v>
       </c>
       <c r="N15">
-        <v>84.303988237933</v>
+        <v>253.51133</v>
       </c>
       <c r="O15">
-        <v>0.8634386025380856</v>
+        <v>0.8460577852132902</v>
       </c>
       <c r="P15">
-        <v>0.8634386025380856</v>
+        <v>0.8460577852132902</v>
       </c>
       <c r="Q15">
-        <v>1112.494490701188</v>
+        <v>6869.181503234235</v>
       </c>
       <c r="R15">
-        <v>1112.494490701188</v>
+        <v>61822.63352910811</v>
       </c>
       <c r="S15">
-        <v>0.04047307103533643</v>
+        <v>0.238702155610492</v>
       </c>
       <c r="T15">
-        <v>0.04047307103533643</v>
+        <v>0.238702155610492</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>81.28845566666666</v>
+      </c>
+      <c r="H16">
+        <v>243.865367</v>
+      </c>
+      <c r="I16">
+        <v>0.2821345773094157</v>
+      </c>
+      <c r="J16">
+        <v>0.2821345773094157</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1070423333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.321127</v>
+      </c>
+      <c r="O16">
+        <v>0.001071715407718417</v>
+      </c>
+      <c r="P16">
+        <v>0.001071715407718417</v>
+      </c>
+      <c r="Q16">
+        <v>8.701305967623222</v>
+      </c>
+      <c r="R16">
+        <v>78.31175370860899</v>
+      </c>
+      <c r="S16">
+        <v>0.0003023679735526238</v>
+      </c>
+      <c r="T16">
+        <v>0.0003023679735526238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>81.28845566666666</v>
+      </c>
+      <c r="H17">
+        <v>243.865367</v>
+      </c>
+      <c r="I17">
+        <v>0.2821345773094157</v>
+      </c>
+      <c r="J17">
+        <v>0.2821345773094157</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>11.878781</v>
+      </c>
+      <c r="N17">
+        <v>35.636343</v>
+      </c>
+      <c r="O17">
+        <v>0.1189311950344829</v>
+      </c>
+      <c r="P17">
+        <v>0.1189311950344828</v>
+      </c>
+      <c r="Q17">
+        <v>965.6077626925425</v>
+      </c>
+      <c r="R17">
+        <v>8690.469864232882</v>
+      </c>
+      <c r="S17">
+        <v>0.03355460243995749</v>
+      </c>
+      <c r="T17">
+        <v>0.03355460243995749</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>13.1962261092722</v>
-      </c>
-      <c r="H16">
-        <v>13.1962261092722</v>
-      </c>
-      <c r="I16">
-        <v>0.04687428951678264</v>
-      </c>
-      <c r="J16">
-        <v>0.04687428951678264</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>10.5786077282179</v>
-      </c>
-      <c r="N16">
-        <v>10.5786077282179</v>
-      </c>
-      <c r="O16">
-        <v>0.1083457433576218</v>
-      </c>
-      <c r="P16">
-        <v>0.1083457433576218</v>
-      </c>
-      <c r="Q16">
-        <v>139.5976995028577</v>
-      </c>
-      <c r="R16">
-        <v>139.5976995028577</v>
-      </c>
-      <c r="S16">
-        <v>0.005078629742056195</v>
-      </c>
-      <c r="T16">
-        <v>0.005078629742056195</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>14.55416966666667</v>
+      </c>
+      <c r="H18">
+        <v>43.662509</v>
+      </c>
+      <c r="I18">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="J18">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.389838666666666</v>
+      </c>
+      <c r="N18">
+        <v>10.169516</v>
+      </c>
+      <c r="O18">
+        <v>0.03393930434450846</v>
+      </c>
+      <c r="P18">
+        <v>0.03393930434450846</v>
+      </c>
+      <c r="Q18">
+        <v>49.33628709729378</v>
+      </c>
+      <c r="R18">
+        <v>444.026583875644</v>
+      </c>
+      <c r="S18">
+        <v>0.001714422318641207</v>
+      </c>
+      <c r="T18">
+        <v>0.001714422318641207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>14.55416966666667</v>
+      </c>
+      <c r="H19">
+        <v>43.662509</v>
+      </c>
+      <c r="I19">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="J19">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>84.50377666666667</v>
+      </c>
+      <c r="N19">
+        <v>253.51133</v>
+      </c>
+      <c r="O19">
+        <v>0.8460577852132902</v>
+      </c>
+      <c r="P19">
+        <v>0.8460577852132902</v>
+      </c>
+      <c r="Q19">
+        <v>1229.882303080774</v>
+      </c>
+      <c r="R19">
+        <v>11068.94072772697</v>
+      </c>
+      <c r="S19">
+        <v>0.0427380695581202</v>
+      </c>
+      <c r="T19">
+        <v>0.04273806955812019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>14.55416966666667</v>
+      </c>
+      <c r="H20">
+        <v>43.662509</v>
+      </c>
+      <c r="I20">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="J20">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1070423333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.321127</v>
+      </c>
+      <c r="O20">
+        <v>0.001071715407718417</v>
+      </c>
+      <c r="P20">
+        <v>0.001071715407718417</v>
+      </c>
+      <c r="Q20">
+        <v>1.557912280849222</v>
+      </c>
+      <c r="R20">
+        <v>14.021210527643</v>
+      </c>
+      <c r="S20">
+        <v>5.41370204755364E-05</v>
+      </c>
+      <c r="T20">
+        <v>5.413702047553639E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>14.55416966666667</v>
+      </c>
+      <c r="H21">
+        <v>43.662509</v>
+      </c>
+      <c r="I21">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="J21">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>11.878781</v>
+      </c>
+      <c r="N21">
+        <v>35.636343</v>
+      </c>
+      <c r="O21">
+        <v>0.1189311950344829</v>
+      </c>
+      <c r="P21">
+        <v>0.1189311950344828</v>
+      </c>
+      <c r="Q21">
+        <v>172.8857941071764</v>
+      </c>
+      <c r="R21">
+        <v>1555.972146964587</v>
+      </c>
+      <c r="S21">
+        <v>0.006007733484460162</v>
+      </c>
+      <c r="T21">
+        <v>0.006007733484460161</v>
       </c>
     </row>
   </sheetData>
